--- a/Implementación/Test 2/decisiones_w3.xlsx
+++ b/Implementación/Test 2/decisiones_w3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{937FFE08-FDB9-40A7-B11E-8FCE348D3B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FA0313-DD5D-4BD6-BCCF-EF22CA658F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{FD83F48F-98C9-4741-B261-417C4E6AB096}"/>
   </bookViews>
@@ -35,21 +35,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Var1_1</t>
-  </si>
-  <si>
-    <t>Var1_2</t>
-  </si>
-  <si>
-    <t>Var1_3</t>
-  </si>
-  <si>
-    <t>Var1_4</t>
-  </si>
-  <si>
-    <t>Var1_5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>SMARTER</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
+  <si>
+    <t>TOPSIS</t>
+  </si>
+  <si>
+    <t>GRA</t>
+  </si>
+  <si>
+    <t>CODAS</t>
+  </si>
+  <si>
+    <t>MABAC</t>
+  </si>
+  <si>
+    <t>VIKOR</t>
+  </si>
+  <si>
+    <t>PROMETHEE II</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Entropia</t>
+  </si>
+  <si>
+    <t>SSIM</t>
   </si>
 </sst>
 </file>
@@ -401,166 +428,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0678A3A4-748F-4860-AF85-CADE0562B285}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.54183877113833423</v>
+      </c>
+      <c r="E2">
+        <v>7.9868522489182681</v>
+      </c>
+      <c r="F2">
+        <v>0.70034975222536722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1.1531329342682918E-2</v>
+      </c>
+      <c r="E3">
+        <v>7.9449704088705975</v>
+      </c>
+      <c r="F3">
+        <v>0.8297000019723012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1.6867878657946866E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.9677766057819381</v>
+      </c>
+      <c r="F4">
+        <v>0.77355062619206216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B5">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.54183877113833423</v>
       </c>
-      <c r="D2">
+      <c r="E5">
         <v>7.9868522489182681</v>
       </c>
-      <c r="E2">
+      <c r="F5">
         <v>0.70034975222536722</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1.1531329342682918E-2</v>
-      </c>
-      <c r="D3">
-        <v>7.9449704088705975</v>
-      </c>
-      <c r="E3">
-        <v>0.8297000019723012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1.6867878657946866E-2</v>
-      </c>
-      <c r="D4">
-        <v>7.9677766057819381</v>
-      </c>
-      <c r="E4">
-        <v>0.77355062619206216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0.54183877113833423</v>
-      </c>
-      <c r="D5">
-        <v>7.9868522489182681</v>
-      </c>
-      <c r="E5">
-        <v>0.70034975222536722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
         <v>42</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0.28112988975593178</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7.9892839873986627</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.6795335223886132</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.27448977142948955</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7.9883467065621732</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.689498643645443</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>106</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7.4885676590556169</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.99579939202189749</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>42</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.28112988975593178</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7.9892839873986627</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.6795335223886132</v>
       </c>
     </row>

--- a/Implementación/Test 2/decisiones_w3.xlsx
+++ b/Implementación/Test 2/decisiones_w3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FA0313-DD5D-4BD6-BCCF-EF22CA658F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F49AAEE-3A78-4ECF-8383-24FA994DAE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{FD83F48F-98C9-4741-B261-417C4E6AB096}"/>
   </bookViews>
